--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1565.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1565.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.117149044633898</v>
+        <v>0.5884189605712891</v>
       </c>
       <c r="B1">
-        <v>-1</v>
+        <v>2.064315557479858</v>
       </c>
       <c r="C1">
         <v>-1</v>
       </c>
       <c r="D1">
-        <v>-1</v>
+        <v>2.673370122909546</v>
       </c>
       <c r="E1">
-        <v>1.075430010343397</v>
+        <v>1.08525812625885</v>
       </c>
     </row>
   </sheetData>
